--- a/biology/Botanique/Courtiers_en_riz/Courtiers_en_riz.xlsx
+++ b/biology/Botanique/Courtiers_en_riz/Courtiers_en_riz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les courtiers en riz, qui prennent de l'importance et du pouvoir à Osaka et Edo au cours de l'époque d'Edo (1603-1867) de l'histoire du Japon, sont les précurseurs du système bancaire japonais. En fait, le concept trouve son origine à Kyoto plusieurs centaines d'années plus tôt. Les premiers courtiers en riz de Kyoto, cependant, fonctionnent un peu différemment, et ne sont finalement pas aussi puissant ni économiquement influents que le sera plus tard le système à Osaka.
 Les daimyo, (seigneurs féodaux), reçoivent la plupart de leurs revenus sous forme de riz. Les chōnin (commerçants) à Osaka et Edo, commencent donc à mettre en place des entrepôts où ils engrangent le riz des daimyo en échange d'une redevance, qu'ils échangent pour des pièces de monnaie ou une autre forme de reçu, en substance un précurseur du papier monnaie. Beaucoup, sinon la totalité de ces courtiers de riz font également des prêts, et deviennent en fait très riches et puissants. Comme la période d'Edo avance, les daimyo s'appauvrissent et commencent à prendre plus de prêts, augmentant ainsi la position sociale des courtiers de riz.
@@ -513,7 +525,9 @@
           <t>Kyoto</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme l'urbanisation et d'autres changements économiques deviennent significativement plus répandus et puissants au XIVe siècle, la croissance des villes créé une croissance de la demande pour le transport des produits, en particulier le riz, dans les villes, en provenance de zones rurales de plus en plus grandes et éloignées. En conséquence, un système de transport de matière et d'entreposage apparaît à Kyoto. Ce processus est le même que celui qui catapulte le Japon dans l'ère moderne à l'époque d'Edo, mais sur une échelle plus petite et plus localisée autour de la zone du Kinai, et centré à Kyoto au lieu d'Osaka qui va devenir le centre commercial d'un système de commerce national trois cents ans plus tard.
 Les courtiers de riz à Kyoto font des affaires très rapidement et deviennent de plus en plus organisés au cours du XIVe siècle. En 1400, la nécessité d'un marché du riz centrale se fait sentir. Créé aux environs de cette année, le marché central du riz à Kyoto fixe le prix du riz par un système d'enchères, déterminant, fortement mais indirectement, les prix dans l'ensemble du pays. Cet effet est renforcé par le contrôle monopolistique serré des commerçants de ce marché central sur le commerce du riz dans toute la ville; nulle part ailleurs le commerce de gros du riz n'est autorisé. Comme les affaires se développent, les courtiers de riz se multiplient parmi leurs adhérents transporteurs et gardes qui contrôlent étroitement le flux de riz dans la ville. Ces emplois se spécialisent davantage et s'organisent au cours du XVe siècle, se développant en branches bien distinctes de la guilde.
@@ -548,7 +562,9 @@
           <t>Osaka</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vers 1700, Osaka est devenu le centre commercial du Japon. Les marchands d'Osaka se sont organisés en un système de chambre de compensation national. Un des obstacles majeurs à la mise au point d'un système capitaliste moderne au Japon à cette époque est le problème du transport. Bien que certains produits de base, tels que la soie tissée et le saké peuvent être transportés facilement dans un panier, la plupart des cultures sont récoltées en volumes tels qu'une caravane de chevaux de bât et de charrettes à travers les routes accidentées et dangereuses, dirigée par les agriculteurs, ne peut tout simplement pas être mise en œuvre. Ainsi, un certain nombre de villes servent d'étapes où les marchands agissent comme intermédiaires, stockent les produits agricoles et les transportent vers les grands centres commerciaux tels qu'Osaka, contre rémunération. Cependant, l'augmentation de l'offre et de la demande vers la fin du XVIIe siècle nécessite une meilleure méthode du transport de marchandises en grandes quantités. Les marchands de Sakai, préfecture d'Osaka, et un certain nombre d'autres ports abordent ce problème et expérimentent l'usage de grands navires pour le transport de marchandises le long des côtes. À la fin du XVIIe siècle, Osaka est le siège d'au moins 24 expéditeurs de fret à Edo et d'un système complexe de corporations, à la fois à Osaka proprement dit et dans la zone alentour, spécialisés dans le coton, le sucre, le papier et les produits de régions particulières. 
 Les revenus des daimyo à cette époque sont versés sous forme de kokus de riz, correspondant à un montant égal à la quantité de riz qu'un homme consomme en un an. Bien qu'il y existe un système national unifié de monnaie, chaque domaine féodal est également libre de frapper sa propre monnaie. Ainsi, le paiement pour les hôtels, les auberges et la nourriture est une affaire complexe et difficile pour les daimyo à destination ou en provenance d'Edo tel que mandatés par le système sankin kōtai (présence alternée) du shogunat.
@@ -585,7 +601,9 @@
           <t>Edo</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les courtiers de riz d'Edo sont appelés fudasashi (札差, « note / facture d'échange »), et se trouvent dans le quartier kuramae (蔵前, « devant les entrepôts ») d'Asakusa. Acteurs d'une entreprise très rentable, les fudasashi agissent à la fois comme usuriers et comme intermédiaires assurant la logistique du paiement des impôts des daimyo au shogunat. Les courtiers en riz, comme d'autres membres de la société chōnin (gens de la ville) à Edo, sont des clients fréquents du théâtre kabuki, du quartier des plaisirs de Yoshiwara et d'autres aspects de la culture urbaine de l'époque.
 </t>
